--- a/Document/4_수정중/Test Case/Test case 양식 맞춰서_ 1209 BF도 했음.xlsx
+++ b/Document/4_수정중/Test Case/Test case 양식 맞춰서_ 1209 BF도 했음.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yeongmo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/4_수정중/Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4FEB1F-631D-B94C-A530-87C681DECAF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AF61E9-B9C5-1846-9F79-97FED14E1A7A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13300" windowHeight="18000" tabRatio="656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="656" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario_with _BF" sheetId="16" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2085" uniqueCount="556">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -1586,15 +1586,444 @@
     <t>none (By system)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>TC_02</t>
+  </si>
+  <si>
+    <t>TC_03</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>TC_06</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>TC_13</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>TC_17</t>
+  </si>
+  <si>
+    <t>TC_18</t>
+  </si>
+  <si>
+    <t>TC_19</t>
+  </si>
+  <si>
+    <t>TC_20</t>
+  </si>
+  <si>
+    <t>TC_21</t>
+  </si>
+  <si>
+    <t>TC_22</t>
+  </si>
+  <si>
+    <t>TC_23</t>
+  </si>
+  <si>
+    <t>TC_24</t>
+  </si>
+  <si>
+    <t>TC_25</t>
+  </si>
+  <si>
+    <t>TC_26</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>TC_29</t>
+  </si>
+  <si>
+    <t>TC_30</t>
+  </si>
+  <si>
+    <t>TC_31</t>
+  </si>
+  <si>
+    <t>TC_32</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>TC_34</t>
+  </si>
+  <si>
+    <t>SC_01</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>TC_36</t>
+  </si>
+  <si>
+    <t>TC_37</t>
+  </si>
+  <si>
+    <t>TC_38</t>
+  </si>
+  <si>
+    <t>TC_39</t>
+  </si>
+  <si>
+    <t>TC_40</t>
+  </si>
+  <si>
+    <t>TC_41</t>
+  </si>
+  <si>
+    <t>TC_42</t>
+  </si>
+  <si>
+    <t>TC_43</t>
+  </si>
+  <si>
+    <t>TC_44</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>TC_46</t>
+  </si>
+  <si>
+    <t>TC_47</t>
+  </si>
+  <si>
+    <t>TC_48</t>
+  </si>
+  <si>
+    <t>TC_49</t>
+  </si>
+  <si>
+    <t>TC_50</t>
+  </si>
+  <si>
+    <t>TC_51</t>
+  </si>
+  <si>
+    <t>TC_52</t>
+  </si>
+  <si>
+    <t>TC_53</t>
+  </si>
+  <si>
+    <t>TC_54</t>
+  </si>
+  <si>
+    <t>TC_55</t>
+  </si>
+  <si>
+    <t>TC_56</t>
+  </si>
+  <si>
+    <t>TC_57</t>
+  </si>
+  <si>
+    <t>TC_58</t>
+  </si>
+  <si>
+    <t>TC_59</t>
+  </si>
+  <si>
+    <t>TC_60</t>
+  </si>
+  <si>
+    <t>TC_61</t>
+  </si>
+  <si>
+    <t>TC_62</t>
+  </si>
+  <si>
+    <t>TC_63</t>
+  </si>
+  <si>
+    <t>TC_64</t>
+  </si>
+  <si>
+    <t>TC_65</t>
+  </si>
+  <si>
+    <t>TC_66</t>
+  </si>
+  <si>
+    <t>TC_67</t>
+  </si>
+  <si>
+    <t>TC_68</t>
+  </si>
+  <si>
+    <t>TC_69</t>
+  </si>
+  <si>
+    <t>TC_70</t>
+  </si>
+  <si>
+    <t>TC_71</t>
+  </si>
+  <si>
+    <t>TC_72</t>
+  </si>
+  <si>
+    <t>TC_73</t>
+  </si>
+  <si>
+    <t>TC_74</t>
+  </si>
+  <si>
+    <t>TC_75</t>
+  </si>
+  <si>
+    <t>TC_76</t>
+  </si>
+  <si>
+    <t>TC_77</t>
+  </si>
+  <si>
+    <t>TC_78</t>
+  </si>
+  <si>
+    <t>TC_79</t>
+  </si>
+  <si>
+    <t>TC_80</t>
+  </si>
+  <si>
+    <t>TC_81</t>
+  </si>
+  <si>
+    <t>TC_82</t>
+  </si>
+  <si>
+    <t>TC_83</t>
+  </si>
+  <si>
+    <t>TC_84</t>
+  </si>
+  <si>
+    <t>TC_85</t>
+  </si>
+  <si>
+    <t>TC_86</t>
+  </si>
+  <si>
+    <t>TC_87</t>
+  </si>
+  <si>
+    <t>TC_88</t>
+  </si>
+  <si>
+    <t>TC_89</t>
+  </si>
+  <si>
+    <t>TC_90</t>
+  </si>
+  <si>
+    <t>TC_91</t>
+  </si>
+  <si>
+    <t>TC_92</t>
+  </si>
+  <si>
+    <t>TC_93</t>
+  </si>
+  <si>
+    <t>TC_94</t>
+  </si>
+  <si>
+    <t>TC_95</t>
+  </si>
+  <si>
+    <t>TC_96</t>
+  </si>
+  <si>
+    <t>TC_97</t>
+  </si>
+  <si>
+    <t>TC_98</t>
+  </si>
+  <si>
+    <t>TC_99</t>
+  </si>
+  <si>
+    <t>TC_100</t>
+  </si>
+  <si>
+    <t>TC_101</t>
+  </si>
+  <si>
+    <t>TC_102</t>
+  </si>
+  <si>
+    <t>TC_103</t>
+  </si>
+  <si>
+    <t>SC_02</t>
+  </si>
+  <si>
+    <t>SC_03</t>
+  </si>
+  <si>
+    <t>SC_04</t>
+  </si>
+  <si>
+    <t>SC_05</t>
+  </si>
+  <si>
+    <t>SC_06</t>
+  </si>
+  <si>
+    <t>SC_07</t>
+  </si>
+  <si>
+    <t>SC_08</t>
+  </si>
+  <si>
+    <t>SC_09</t>
+  </si>
+  <si>
+    <t>SC_10</t>
+  </si>
+  <si>
+    <t>SC_11</t>
+  </si>
+  <si>
+    <t>SC_12</t>
+  </si>
+  <si>
+    <t>SC_13</t>
+  </si>
+  <si>
+    <t>SC_14</t>
+  </si>
+  <si>
+    <t>SC_15</t>
+  </si>
+  <si>
+    <t>SC_16</t>
+  </si>
+  <si>
+    <t>SC_17</t>
+  </si>
+  <si>
+    <t>SC_18</t>
+  </si>
+  <si>
+    <t>SC_19</t>
+  </si>
+  <si>
+    <t>SC_20</t>
+  </si>
+  <si>
+    <t>SC_21</t>
+  </si>
+  <si>
+    <t>SC_22</t>
+  </si>
+  <si>
+    <t>SC_23</t>
+  </si>
+  <si>
+    <t>SC_24</t>
+  </si>
+  <si>
+    <t>SC_25</t>
+  </si>
+  <si>
+    <t>SC_26</t>
+  </si>
+  <si>
+    <t>SC_27</t>
+  </si>
+  <si>
+    <t>SC_28</t>
+  </si>
+  <si>
+    <t>SC_29</t>
+  </si>
+  <si>
+    <t>SC_30</t>
+  </si>
+  <si>
+    <t>SC_31</t>
+  </si>
+  <si>
+    <t>SC_32</t>
+  </si>
+  <si>
+    <t>SC_33</t>
+  </si>
+  <si>
+    <t>SC_34</t>
+  </si>
+  <si>
+    <t>SC_35</t>
+  </si>
+  <si>
+    <t>SC_36</t>
+  </si>
+  <si>
+    <t>SC_37</t>
+  </si>
+  <si>
+    <t>SC_38</t>
+  </si>
+  <si>
+    <t>SC_39</t>
+  </si>
+  <si>
+    <t>SC_40</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1615,17 +2044,10 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1740,7 +2162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1771,10 +2193,9 @@
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1811,7 +2232,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
@@ -1821,14 +2241,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1840,14 +2266,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1855,14 +2290,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1879,16 +2308,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{987B8334-A4AC-46AB-BB4B-C8D7EA545DEC}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2193,9 +2615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C0D00D-BEA6-42BC-B0E5-320E593D0F46}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView zoomScale="83" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="34" customHeight="1"/>
   <cols>
@@ -2221,287 +2641,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="34" customHeight="1">
-      <c r="B1" s="24"/>
+      <c r="B1" s="23"/>
     </row>
     <row r="2" spans="2:7" ht="34" customHeight="1">
-      <c r="B2" s="24"/>
+      <c r="B2" s="23"/>
     </row>
     <row r="3" spans="2:7" ht="34" customHeight="1">
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="24" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="34" customHeight="1">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>220</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="60" t="s">
+      <c r="G4" s="40" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="34" customHeight="1">
-      <c r="B5" s="25"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="38" t="s">
         <v>402</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="38" t="s">
         <v>380</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="39" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="34" customHeight="1">
-      <c r="B6" s="25"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="38" t="s">
         <v>403</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="38" t="s">
         <v>381</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="39" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="34" customHeight="1">
-      <c r="B7" s="25"/>
+      <c r="B7" s="24"/>
       <c r="C7" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="38" t="s">
         <v>404</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="38" t="s">
         <v>382</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="39" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="34" customHeight="1">
-      <c r="B8" s="25"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="38" t="s">
         <v>384</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="39" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="34" customHeight="1">
-      <c r="B9" s="25"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="39" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="34" customHeight="1">
-      <c r="B10" s="25"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="38" t="s">
         <v>407</v>
       </c>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="39" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="34" customHeight="1">
-      <c r="B11" s="25"/>
+      <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="38" t="s">
         <v>408</v>
       </c>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="38" t="s">
         <v>390</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="39" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="12" spans="2:7" ht="34" customHeight="1">
-      <c r="B12" s="25"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="38" t="s">
         <v>409</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="38" t="s">
         <v>392</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="39" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="13" spans="2:7" ht="34" customHeight="1">
-      <c r="B13" s="25"/>
+      <c r="B13" s="24"/>
       <c r="C13" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="F13" s="38" t="s">
         <v>394</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="39" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="34" customHeight="1">
-      <c r="B14" s="25"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="F14" s="38" t="s">
         <v>396</v>
       </c>
-      <c r="G14" s="59" t="s">
+      <c r="G14" s="39" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="15" spans="2:7" ht="34" customHeight="1">
-      <c r="B15" s="25"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="F15" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="38" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="34" customHeight="1">
-      <c r="B16" s="25"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="G16" s="58" t="s">
+      <c r="G16" s="38" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="34" customHeight="1">
-      <c r="B17" s="25"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="38" t="s">
         <v>398</v>
       </c>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="38" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="34" customHeight="1">
-      <c r="B18" s="24"/>
+      <c r="B18" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2514,9 +2934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBECBC9-FE1B-8943-B752-675EEBC02EB5}">
   <dimension ref="B2:W36"/>
   <sheetViews>
-    <sheetView topLeftCell="C14" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C14" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="34" customHeight="1"/>
   <cols>
@@ -2557,14 +2975,14 @@
       <c r="F2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
       <c r="K2" s="42" t="s">
         <v>113</v>
       </c>
@@ -2580,7 +2998,7 @@
       <c r="U2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="47" t="s">
         <v>115</v>
       </c>
       <c r="W2" s="43" t="s">
@@ -2593,14 +3011,14 @@
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="42"/>
-      <c r="G3" s="47"/>
+      <c r="G3" s="41"/>
       <c r="H3" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>173</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -2634,20 +3052,24 @@
         <v>6</v>
       </c>
       <c r="U3" s="44"/>
-      <c r="V3" s="46"/>
+      <c r="V3" s="48"/>
       <c r="W3" s="44"/>
     </row>
     <row r="4" spans="2:23" ht="34" customHeight="1">
-      <c r="B4" s="6"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="19" t="s">
+      <c r="E4" s="19"/>
+      <c r="F4" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>213</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2674,7 +3096,7 @@
       <c r="O4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="31">
         <v>241227</v>
       </c>
       <c r="Q4" s="2" t="s">
@@ -2683,7 +3105,7 @@
       <c r="R4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T4" s="2" t="s">
@@ -2695,23 +3117,27 @@
       <c r="V4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="20" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="34" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="19"/>
+      <c r="F5" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="2" t="s">
         <v>104</v>
       </c>
@@ -2736,7 +3162,7 @@
       <c r="O5" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P5" s="33">
+      <c r="P5" s="31">
         <v>241227</v>
       </c>
       <c r="Q5" s="2" t="s">
@@ -2745,7 +3171,7 @@
       <c r="R5" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S5" s="23" t="s">
+      <c r="S5" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T5" s="2" t="s">
@@ -2757,22 +3183,26 @@
       <c r="V5" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="34" customHeight="1">
-      <c r="B6" s="6"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="37" t="s">
+        <v>415</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>104</v>
       </c>
@@ -2797,7 +3227,7 @@
       <c r="O6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P6" s="33">
+      <c r="P6" s="31">
         <v>241227</v>
       </c>
       <c r="Q6" s="2" t="s">
@@ -2806,7 +3236,7 @@
       <c r="R6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S6" s="23" t="s">
+      <c r="S6" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T6" s="2" t="s">
@@ -2818,22 +3248,26 @@
       <c r="V6" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="W6" s="34" t="s">
+      <c r="W6" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="34" customHeight="1">
-      <c r="B7" s="32"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="37" t="s">
+        <v>416</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>210</v>
       </c>
@@ -2861,7 +3295,7 @@
       <c r="O7" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P7" s="33">
+      <c r="P7" s="31">
         <v>241227</v>
       </c>
       <c r="Q7" s="2" t="s">
@@ -2870,34 +3304,38 @@
       <c r="R7" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S7" s="23" t="s">
+      <c r="S7" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="37" t="s">
+      <c r="U7" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="V7" s="37" t="s">
+      <c r="V7" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="W7" s="34" t="s">
+      <c r="W7" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:23" ht="34" customHeight="1">
-      <c r="B8" s="6"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="37" t="s">
+        <v>417</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>211</v>
       </c>
@@ -2925,7 +3363,7 @@
       <c r="O8" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="33">
+      <c r="P8" s="31">
         <v>241227</v>
       </c>
       <c r="Q8" s="2" t="s">
@@ -2934,34 +3372,38 @@
       <c r="R8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S8" s="23" t="s">
+      <c r="S8" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="37" t="s">
+      <c r="U8" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="V8" s="37" t="s">
+      <c r="V8" s="34" t="s">
         <v>299</v>
       </c>
-      <c r="W8" s="34" t="s">
+      <c r="W8" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:23" ht="34" customHeight="1">
-      <c r="B9" s="6"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="37" t="s">
+        <v>418</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>211</v>
       </c>
@@ -2989,7 +3431,7 @@
       <c r="O9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="31">
         <v>241227</v>
       </c>
       <c r="Q9" s="2" t="s">
@@ -2998,34 +3440,38 @@
       <c r="R9" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S9" s="23" t="s">
+      <c r="S9" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="U9" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="V9" s="37" t="s">
+      <c r="V9" s="34" t="s">
         <v>300</v>
       </c>
-      <c r="W9" s="34" t="s">
+      <c r="W9" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:23" ht="34" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="19" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="37" t="s">
+        <v>419</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>104</v>
@@ -3051,7 +3497,7 @@
       <c r="O10" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P10" s="33">
+      <c r="P10" s="31">
         <v>241227</v>
       </c>
       <c r="Q10" s="2" t="s">
@@ -3060,32 +3506,36 @@
       <c r="R10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S10" s="23" t="s">
+      <c r="S10" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="37" t="s">
+      <c r="U10" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="V10" s="37" t="s">
+      <c r="V10" s="34" t="s">
         <v>334</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="34" customHeight="1">
-      <c r="B11" s="6"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>176</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="37" t="s">
+        <v>420</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>190</v>
       </c>
@@ -3113,7 +3563,7 @@
       <c r="O11" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="33">
+      <c r="P11" s="31">
         <v>241227</v>
       </c>
       <c r="Q11" s="2" t="s">
@@ -3134,22 +3584,26 @@
       <c r="V11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="W11" s="34" t="s">
+      <c r="W11" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="34" customHeight="1">
-      <c r="B12" s="6"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="37" t="s">
+        <v>421</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>104</v>
@@ -3175,7 +3629,7 @@
       <c r="O12" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P12" s="33">
+      <c r="P12" s="31">
         <v>241227</v>
       </c>
       <c r="Q12" s="2" t="s">
@@ -3184,34 +3638,38 @@
       <c r="R12" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S12" s="23" t="s">
+      <c r="S12" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U12" s="37" t="s">
+      <c r="U12" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="V12" s="37" t="s">
+      <c r="V12" s="34" t="s">
         <v>330</v>
       </c>
-      <c r="W12" s="34" t="s">
+      <c r="W12" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="34" customHeight="1">
-      <c r="B13" s="6"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="37" t="s">
+        <v>422</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>104</v>
@@ -3237,7 +3695,7 @@
       <c r="O13" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="P13" s="33">
+      <c r="P13" s="31">
         <v>191233</v>
       </c>
       <c r="Q13" s="2" t="s">
@@ -3246,34 +3704,38 @@
       <c r="R13" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U13" s="37" t="s">
+      <c r="U13" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="V13" s="37" t="s">
+      <c r="V13" s="34" t="s">
         <v>338</v>
       </c>
-      <c r="W13" s="34" t="s">
+      <c r="W13" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="34" customHeight="1">
-      <c r="B14" s="6"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C14" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="37" t="s">
+        <v>423</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>104</v>
@@ -3299,7 +3761,7 @@
       <c r="O14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="33">
+      <c r="P14" s="31">
         <v>241227</v>
       </c>
       <c r="Q14" s="2" t="s">
@@ -3320,20 +3782,24 @@
       <c r="V14" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="W14" s="34" t="s">
+      <c r="W14" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="34" customHeight="1">
-      <c r="B15" s="6"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="37" t="s">
+        <v>447</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>176</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="37" t="s">
+        <v>424</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>191</v>
       </c>
@@ -3361,7 +3827,7 @@
       <c r="O15" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P15" s="33">
+      <c r="P15" s="31">
         <v>241227</v>
       </c>
       <c r="Q15" s="2" t="s">
@@ -3370,7 +3836,7 @@
       <c r="R15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T15" s="2" t="s">
@@ -3382,20 +3848,24 @@
       <c r="V15" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="W15" s="34" t="s">
+      <c r="W15" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="34" customHeight="1">
-      <c r="B16" s="6"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>177</v>
       </c>
       <c r="E16" s="13"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="37" t="s">
+        <v>425</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>203</v>
       </c>
@@ -3423,7 +3893,7 @@
       <c r="O16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P16" s="33">
+      <c r="P16" s="31">
         <v>241227</v>
       </c>
       <c r="Q16" s="2" t="s">
@@ -3432,32 +3902,36 @@
       <c r="R16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S16" s="23" t="s">
+      <c r="S16" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="37" t="s">
+      <c r="U16" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="V16" s="37" t="s">
+      <c r="V16" s="34" t="s">
         <v>301</v>
       </c>
-      <c r="W16" s="34" t="s">
+      <c r="W16" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="17" spans="2:23" ht="34" customHeight="1">
-      <c r="B17" s="6"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>177</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="37" t="s">
+        <v>426</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>204</v>
       </c>
@@ -3485,7 +3959,7 @@
       <c r="O17" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P17" s="33">
+      <c r="P17" s="31">
         <v>241227</v>
       </c>
       <c r="Q17" s="2" t="s">
@@ -3494,32 +3968,36 @@
       <c r="R17" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S17" s="23" t="s">
+      <c r="S17" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="37" t="s">
+      <c r="U17" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="V17" s="37" t="s">
+      <c r="V17" s="34" t="s">
         <v>302</v>
       </c>
-      <c r="W17" s="34" t="s">
+      <c r="W17" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="18" spans="2:23" ht="34" customHeight="1">
-      <c r="B18" s="32"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="37" t="s">
+        <v>427</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>314</v>
       </c>
@@ -3547,7 +4025,7 @@
       <c r="O18" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="31">
         <v>241227</v>
       </c>
       <c r="Q18" s="2" t="s">
@@ -3556,32 +4034,36 @@
       <c r="R18" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S18" s="23" t="s">
+      <c r="S18" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="37" t="s">
+      <c r="U18" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="V18" s="37" t="s">
+      <c r="V18" s="34" t="s">
         <v>315</v>
       </c>
-      <c r="W18" s="34" t="s">
+      <c r="W18" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="19" spans="2:23" ht="34" customHeight="1">
-      <c r="B19" s="32"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="37" t="s">
+        <v>428</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>205</v>
       </c>
@@ -3594,7 +4076,7 @@
       <c r="J19" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K19" s="23" t="s">
+      <c r="K19" s="22" t="s">
         <v>165</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -3609,7 +4091,7 @@
       <c r="O19" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P19" s="33">
+      <c r="P19" s="31">
         <v>241227</v>
       </c>
       <c r="Q19" s="2" t="s">
@@ -3618,32 +4100,36 @@
       <c r="R19" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="S19" s="23" t="s">
+      <c r="S19" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U19" s="37" t="s">
+      <c r="U19" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="V19" s="37" t="s">
+      <c r="V19" s="34" t="s">
         <v>303</v>
       </c>
-      <c r="W19" s="34" t="s">
+      <c r="W19" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="20" spans="2:23" ht="34" customHeight="1">
-      <c r="B20" s="32"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C20" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="37" t="s">
+        <v>429</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>206</v>
       </c>
@@ -3656,7 +4142,7 @@
       <c r="J20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K20" s="23" t="s">
+      <c r="K20" s="22" t="s">
         <v>166</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -3671,7 +4157,7 @@
       <c r="O20" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="33">
+      <c r="P20" s="31">
         <v>241227</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -3680,32 +4166,36 @@
       <c r="R20" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="S20" s="23" t="s">
+      <c r="S20" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="37" t="s">
+      <c r="U20" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="V20" s="37" t="s">
+      <c r="V20" s="34" t="s">
         <v>325</v>
       </c>
-      <c r="W20" s="34" t="s">
+      <c r="W20" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="21" spans="2:23" ht="34" customHeight="1">
-      <c r="B21" s="32"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="37" t="s">
+        <v>430</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>317</v>
       </c>
@@ -3718,7 +4208,7 @@
       <c r="J21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K21" s="23" t="s">
+      <c r="K21" s="22" t="s">
         <v>167</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3733,7 +4223,7 @@
       <c r="O21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="33">
+      <c r="P21" s="31">
         <v>241227</v>
       </c>
       <c r="Q21" s="2" t="s">
@@ -3742,32 +4232,36 @@
       <c r="R21" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="S21" s="23" t="s">
+      <c r="S21" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="37" t="s">
+      <c r="U21" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="V21" s="37" t="s">
+      <c r="V21" s="34" t="s">
         <v>326</v>
       </c>
-      <c r="W21" s="34" t="s">
+      <c r="W21" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="22" spans="2:23" ht="34" customHeight="1">
-      <c r="B22" s="32"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="37" t="s">
+        <v>431</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>207</v>
       </c>
@@ -3780,7 +4274,7 @@
       <c r="J22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K22" s="23" t="s">
+      <c r="K22" s="22" t="s">
         <v>168</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -3795,7 +4289,7 @@
       <c r="O22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="33">
+      <c r="P22" s="31">
         <v>241227</v>
       </c>
       <c r="Q22" s="2" t="s">
@@ -3804,32 +4298,36 @@
       <c r="R22" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="S22" s="23" t="s">
+      <c r="S22" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="37" t="s">
+      <c r="U22" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="V22" s="37" t="s">
+      <c r="V22" s="34" t="s">
         <v>313</v>
       </c>
-      <c r="W22" s="34" t="s">
+      <c r="W22" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="23" spans="2:23" ht="34" customHeight="1">
-      <c r="B23" s="32"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="37" t="s">
+        <v>432</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>316</v>
       </c>
@@ -3842,7 +4340,7 @@
       <c r="J23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K23" s="23" t="s">
+      <c r="K23" s="22" t="s">
         <v>169</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -3857,7 +4355,7 @@
       <c r="O23" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P23" s="33">
+      <c r="P23" s="31">
         <v>241227</v>
       </c>
       <c r="Q23" s="2" t="s">
@@ -3866,32 +4364,36 @@
       <c r="R23" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="S23" s="23" t="s">
+      <c r="S23" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="37" t="s">
+      <c r="U23" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="V23" s="37" t="s">
+      <c r="V23" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="W23" s="34" t="s">
+      <c r="W23" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="24" spans="2:23" ht="34" customHeight="1">
-      <c r="B24" s="32"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="37" t="s">
+        <v>433</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>208</v>
       </c>
@@ -3904,7 +4406,7 @@
       <c r="J24" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="23" t="s">
+      <c r="K24" s="22" t="s">
         <v>312</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -3919,7 +4421,7 @@
       <c r="O24" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P24" s="33">
+      <c r="P24" s="31">
         <v>241227</v>
       </c>
       <c r="Q24" s="2" t="s">
@@ -3928,33 +4430,37 @@
       <c r="R24" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="S24" s="23" t="s">
+      <c r="S24" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="38" t="s">
+      <c r="U24" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="V24" s="38" t="s">
+      <c r="V24" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="W24" s="34" t="s">
+      <c r="W24" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="25" spans="2:23" ht="34" customHeight="1">
-      <c r="B25" s="6"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="23" t="s">
+      <c r="E25" s="19"/>
+      <c r="F25" s="37" t="s">
+        <v>434</v>
+      </c>
+      <c r="G25" s="22" t="s">
         <v>192</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3966,7 +4472,7 @@
       <c r="J25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="23" t="s">
+      <c r="K25" s="22" t="s">
         <v>170</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -3981,7 +4487,7 @@
       <c r="O25" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="33">
+      <c r="P25" s="31">
         <v>241227</v>
       </c>
       <c r="Q25" s="2" t="s">
@@ -3990,47 +4496,51 @@
       <c r="R25" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S25" s="23" t="s">
+      <c r="S25" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U25" s="37" t="s">
+      <c r="U25" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="V25" s="37" t="s">
+      <c r="V25" s="34" t="s">
         <v>304</v>
       </c>
-      <c r="W25" s="34" t="s">
+      <c r="W25" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="26" spans="2:23" ht="34" customHeight="1">
-      <c r="B26" s="6"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="23" t="s">
+      <c r="F26" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="22" t="s">
         <v>193</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>293</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="23" t="s">
+      <c r="K26" s="22" t="s">
         <v>170</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -4045,7 +4555,7 @@
       <c r="O26" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P26" s="33">
+      <c r="P26" s="31">
         <v>241227</v>
       </c>
       <c r="Q26" s="2" t="s">
@@ -4054,33 +4564,37 @@
       <c r="R26" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S26" s="23" t="s">
+      <c r="S26" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="38" t="s">
+      <c r="U26" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="V26" s="38" t="s">
+      <c r="V26" s="35" t="s">
         <v>295</v>
       </c>
-      <c r="W26" s="34" t="s">
+      <c r="W26" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="34" customHeight="1">
-      <c r="B27" s="6"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="23" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>194</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -4092,7 +4606,7 @@
       <c r="J27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="23" t="s">
+      <c r="K27" s="22" t="s">
         <v>293</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -4107,7 +4621,7 @@
       <c r="O27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P27" s="33">
+      <c r="P27" s="31">
         <v>241227</v>
       </c>
       <c r="Q27" s="2" t="s">
@@ -4116,47 +4630,51 @@
       <c r="R27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S27" s="23" t="s">
+      <c r="S27" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="37" t="s">
+      <c r="U27" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="V27" s="37" t="s">
+      <c r="V27" s="34" t="s">
         <v>305</v>
       </c>
-      <c r="W27" s="34" t="s">
+      <c r="W27" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="28" spans="2:23" ht="34" customHeight="1">
-      <c r="B28" s="6"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="23" t="s">
+      <c r="F28" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="G28" s="22" t="s">
         <v>209</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="I28" s="23" t="s">
+      <c r="I28" s="22" t="s">
         <v>170</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="23" t="s">
+      <c r="K28" s="22" t="s">
         <v>293</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4171,7 +4689,7 @@
       <c r="O28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="33">
+      <c r="P28" s="31">
         <v>241227</v>
       </c>
       <c r="Q28" s="2" t="s">
@@ -4180,32 +4698,36 @@
       <c r="R28" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="S28" s="23" t="s">
+      <c r="S28" s="22" t="s">
         <v>161</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U28" s="38" t="s">
+      <c r="U28" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="V28" s="38" t="s">
+      <c r="V28" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="W28" s="34" t="s">
+      <c r="W28" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="29" spans="2:23" ht="34" customHeight="1">
-      <c r="B29" s="6"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="37" t="s">
+        <v>438</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>195</v>
       </c>
@@ -4233,7 +4755,7 @@
       <c r="O29" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P29" s="33">
+      <c r="P29" s="31">
         <v>241227</v>
       </c>
       <c r="Q29" s="2" t="s">
@@ -4248,28 +4770,32 @@
       <c r="T29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="39" t="s">
+      <c r="U29" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="V29" s="39" t="s">
+      <c r="V29" s="36" t="s">
         <v>306</v>
       </c>
-      <c r="W29" s="34" t="s">
+      <c r="W29" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="2:23" ht="34" customHeight="1">
-      <c r="B30" s="6"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F30" s="6"/>
+      <c r="F30" s="37" t="s">
+        <v>439</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>196</v>
       </c>
@@ -4297,7 +4823,7 @@
       <c r="O30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="33">
+      <c r="P30" s="31">
         <v>241227</v>
       </c>
       <c r="Q30" s="2" t="s">
@@ -4312,26 +4838,30 @@
       <c r="T30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U30" s="38" t="s">
+      <c r="U30" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="V30" s="38" t="s">
+      <c r="V30" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="W30" s="34" t="s">
+      <c r="W30" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="34" customHeight="1">
-      <c r="B31" s="6"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="37" t="s">
+        <v>440</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>197</v>
       </c>
@@ -4359,7 +4889,7 @@
       <c r="O31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P31" s="33">
+      <c r="P31" s="31">
         <v>241227</v>
       </c>
       <c r="Q31" s="2" t="s">
@@ -4374,28 +4904,32 @@
       <c r="T31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U31" s="39" t="s">
+      <c r="U31" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="V31" s="39" t="s">
+      <c r="V31" s="36" t="s">
         <v>308</v>
       </c>
-      <c r="W31" s="34" t="s">
+      <c r="W31" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="32" spans="2:23" ht="34" customHeight="1">
-      <c r="B32" s="6"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="37" t="s">
+        <v>441</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>198</v>
       </c>
@@ -4423,7 +4957,7 @@
       <c r="O32" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P32" s="33">
+      <c r="P32" s="31">
         <v>241227</v>
       </c>
       <c r="Q32" s="2" t="s">
@@ -4438,26 +4972,30 @@
       <c r="T32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="38" t="s">
+      <c r="U32" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="V32" s="38" t="s">
+      <c r="V32" s="35" t="s">
         <v>307</v>
       </c>
-      <c r="W32" s="34" t="s">
+      <c r="W32" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="34" customHeight="1">
-      <c r="B33" s="6"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="37" t="s">
+        <v>442</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>199</v>
       </c>
@@ -4485,7 +5023,7 @@
       <c r="O33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P33" s="33">
+      <c r="P33" s="31">
         <v>241227</v>
       </c>
       <c r="Q33" s="2" t="s">
@@ -4500,28 +5038,32 @@
       <c r="T33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U33" s="39" t="s">
+      <c r="U33" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="V33" s="39" t="s">
+      <c r="V33" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="W33" s="34" t="s">
+      <c r="W33" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="34" spans="2:23" ht="34" customHeight="1">
-      <c r="B34" s="6"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F34" s="6"/>
+      <c r="F34" s="37" t="s">
+        <v>443</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>200</v>
       </c>
@@ -4549,7 +5091,7 @@
       <c r="O34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P34" s="33">
+      <c r="P34" s="31">
         <v>241227</v>
       </c>
       <c r="Q34" s="2" t="s">
@@ -4564,28 +5106,32 @@
       <c r="T34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U34" s="38" t="s">
+      <c r="U34" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="V34" s="38" t="s">
+      <c r="V34" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="W34" s="34" t="s">
+      <c r="W34" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="34" customHeight="1">
-      <c r="B35" s="6"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F35" s="6"/>
+      <c r="F35" s="37" t="s">
+        <v>444</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>201</v>
       </c>
@@ -4613,7 +5159,7 @@
       <c r="O35" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P35" s="33">
+      <c r="P35" s="31">
         <v>241227</v>
       </c>
       <c r="Q35" s="2" t="s">
@@ -4628,28 +5174,32 @@
       <c r="T35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U35" s="38" t="s">
+      <c r="U35" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="V35" s="38" t="s">
+      <c r="V35" s="35" t="s">
         <v>309</v>
       </c>
-      <c r="W35" s="34" t="s">
+      <c r="W35" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="36" spans="2:23" ht="34" customHeight="1">
-      <c r="B36" s="32"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="F36" s="6"/>
+      <c r="F36" s="37" t="s">
+        <v>445</v>
+      </c>
       <c r="G36" s="2" t="s">
         <v>202</v>
       </c>
@@ -4677,7 +5227,7 @@
       <c r="O36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P36" s="33">
+      <c r="P36" s="31">
         <v>241227</v>
       </c>
       <c r="Q36" s="2" t="s">
@@ -4692,29 +5242,29 @@
       <c r="T36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U36" s="39" t="s">
+      <c r="U36" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="V36" s="39" t="s">
+      <c r="V36" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="W36" s="34" t="s">
+      <c r="W36" s="32" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:T2"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:T2"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -4726,9 +5276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:S12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="B2:S12"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
@@ -4764,39 +5312,39 @@
       <c r="F2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
       <c r="L2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
       <c r="Q2" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34" customHeight="1">
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="4" t="s">
         <v>55</v>
       </c>
@@ -4825,19 +5373,23 @@
         <v>92</v>
       </c>
       <c r="Q3" s="50"/>
-      <c r="R3" s="48"/>
+      <c r="R3" s="51"/>
       <c r="S3" s="50"/>
     </row>
     <row r="4" spans="2:19" ht="34" customHeight="1">
-      <c r="B4" s="14"/>
+      <c r="B4" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="37" t="s">
+        <v>446</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>188</v>
       </c>
@@ -4874,12 +5426,14 @@
       <c r="R4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="34" t="s">
+      <c r="S4" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="34" customHeight="1">
-      <c r="B5" s="14"/>
+      <c r="B5" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>151</v>
       </c>
@@ -4887,7 +5441,9 @@
         <v>152</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="37" t="s">
+        <v>448</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>189</v>
       </c>
@@ -4924,12 +5480,14 @@
       <c r="R5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="14"/>
+      <c r="B6" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>151</v>
       </c>
@@ -4937,7 +5495,9 @@
         <v>152</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
+      <c r="F6" s="37" t="s">
+        <v>449</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>340</v>
       </c>
@@ -4974,12 +5534,14 @@
       <c r="R6" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="S6" s="34" t="s">
+      <c r="S6" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>151</v>
       </c>
@@ -4987,7 +5549,9 @@
         <v>152</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="37" t="s">
+        <v>450</v>
+      </c>
       <c r="G7" s="2" t="s">
         <v>184</v>
       </c>
@@ -5024,12 +5588,14 @@
       <c r="R7" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="14"/>
+      <c r="B8" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>151</v>
       </c>
@@ -5037,7 +5603,9 @@
         <v>152</v>
       </c>
       <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="37" t="s">
+        <v>451</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>185</v>
       </c>
@@ -5074,20 +5642,24 @@
       <c r="R8" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="S8" s="34" t="s">
+      <c r="S8" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="14"/>
+      <c r="B9" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="37" t="s">
+        <v>452</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>186</v>
       </c>
@@ -5124,12 +5696,14 @@
       <c r="R9" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="S9" s="34" t="s">
+      <c r="S9" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="14"/>
+      <c r="B10" s="37" t="s">
+        <v>528</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>151</v>
       </c>
@@ -5139,7 +5713,9 @@
       <c r="E10" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="37" t="s">
+        <v>453</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>86</v>
@@ -5174,12 +5750,14 @@
       <c r="R10" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="14"/>
+      <c r="B11" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>151</v>
       </c>
@@ -5187,7 +5765,9 @@
         <v>152</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="37" t="s">
+        <v>454</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>187</v>
       </c>
@@ -5224,20 +5804,24 @@
       <c r="R11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="34" t="s">
+      <c r="S11" s="32" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="37" t="s">
+        <v>527</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>151</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="37" t="s">
+        <v>455</v>
+      </c>
       <c r="G12" s="2" t="s">
         <v>123</v>
       </c>
@@ -5274,23 +5858,23 @@
       <c r="R12" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="S12" s="34" t="s">
+      <c r="S12" s="32" t="s">
         <v>257</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -5302,15 +5886,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:V18"/>
   <sheetViews>
-    <sheetView topLeftCell="L3" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="R11" sqref="B2:V18"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.83203125" bestFit="1" customWidth="1"/>
@@ -5344,42 +5926,42 @@
       <c r="F2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
       <c r="L2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
       <c r="T2" s="43" t="s">
         <v>114</v>
       </c>
       <c r="U2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:22" ht="34" customHeight="1">
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
@@ -5421,15 +6003,19 @@
       <c r="V3" s="50"/>
     </row>
     <row r="4" spans="2:22" ht="34" customHeight="1">
-      <c r="B4" s="14"/>
+      <c r="B4" s="37" t="s">
+        <v>529</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="37" t="s">
+        <v>456</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>19</v>
@@ -5455,10 +6041,10 @@
       <c r="O4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="18">
+      <c r="P4" s="17">
         <v>1234</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="17">
         <v>1234</v>
       </c>
       <c r="R4" s="6" t="s">
@@ -5478,7 +6064,9 @@
       </c>
     </row>
     <row r="5" spans="2:22" ht="34" customHeight="1">
-      <c r="B5" s="14"/>
+      <c r="B5" s="37" t="s">
+        <v>530</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>137</v>
       </c>
@@ -5488,7 +6076,9 @@
       <c r="E5" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="37" t="s">
+        <v>457</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>19</v>
@@ -5537,7 +6127,9 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="34" customHeight="1">
-      <c r="B6" s="14"/>
+      <c r="B6" s="37" t="s">
+        <v>531</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>137</v>
       </c>
@@ -5547,7 +6139,9 @@
       <c r="E6" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="37" t="s">
+        <v>458</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
         <v>19</v>
@@ -5573,10 +6167,10 @@
       <c r="O6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <v>1234</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <v>9876</v>
       </c>
       <c r="R6" s="6" t="s">
@@ -5596,7 +6190,9 @@
       </c>
     </row>
     <row r="7" spans="2:22" ht="34" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" s="37" t="s">
+        <v>532</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>137</v>
       </c>
@@ -5606,7 +6202,9 @@
       <c r="E7" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="37" t="s">
+        <v>459</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>19</v>
@@ -5632,10 +6230,10 @@
       <c r="O7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="17">
         <v>1234</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <v>1234</v>
       </c>
       <c r="R7" s="6" t="s">
@@ -5655,15 +6253,19 @@
       </c>
     </row>
     <row r="8" spans="2:22" ht="34" customHeight="1">
-      <c r="B8" s="14"/>
+      <c r="B8" s="37" t="s">
+        <v>533</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="37" t="s">
+        <v>460</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
         <v>19</v>
@@ -5683,7 +6285,7 @@
       <c r="M8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -5707,12 +6309,14 @@
       <c r="U8" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="V8" s="35" t="s">
+      <c r="V8" s="33" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="9" spans="2:22" ht="34" customHeight="1">
-      <c r="B9" s="14"/>
+      <c r="B9" s="37" t="s">
+        <v>534</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>137</v>
       </c>
@@ -5722,7 +6326,9 @@
       <c r="E9" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="37" t="s">
+        <v>461</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>19</v>
@@ -5771,7 +6377,9 @@
       </c>
     </row>
     <row r="10" spans="2:22" ht="34" customHeight="1">
-      <c r="B10" s="14"/>
+      <c r="B10" s="37" t="s">
+        <v>535</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>137</v>
       </c>
@@ -5781,7 +6389,9 @@
       <c r="E10" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="37" t="s">
+        <v>462</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
         <v>19</v>
@@ -5801,7 +6411,7 @@
       <c r="M10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -5830,7 +6440,9 @@
       </c>
     </row>
     <row r="11" spans="2:22" ht="34" customHeight="1">
-      <c r="B11" s="14"/>
+      <c r="B11" s="37" t="s">
+        <v>536</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>137</v>
       </c>
@@ -5840,7 +6452,9 @@
       <c r="E11" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="37" t="s">
+        <v>463</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>19</v>
@@ -5860,7 +6474,7 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="18" t="s">
+      <c r="N11" s="17" t="s">
         <v>20</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -5889,15 +6503,19 @@
       </c>
     </row>
     <row r="12" spans="2:22" ht="34" customHeight="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="37" t="s">
+        <v>537</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="37" t="s">
+        <v>464</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>17</v>
@@ -5923,7 +6541,7 @@
       <c r="O12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="17">
         <v>1234</v>
       </c>
       <c r="Q12" s="6" t="s">
@@ -5946,17 +6564,21 @@
       </c>
     </row>
     <row r="13" spans="2:22" ht="34" customHeight="1">
-      <c r="B13" s="14"/>
+      <c r="B13" s="37" t="s">
+        <v>538</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>261</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="37" t="s">
+        <v>465</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
         <v>19</v>
@@ -6005,17 +6627,21 @@
       </c>
     </row>
     <row r="14" spans="2:22" ht="34" customHeight="1">
-      <c r="B14" s="14"/>
+      <c r="B14" s="37" t="s">
+        <v>539</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>261</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F14" s="14"/>
+      <c r="F14" s="37" t="s">
+        <v>466</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
         <v>17</v>
@@ -6064,17 +6690,21 @@
       </c>
     </row>
     <row r="15" spans="2:22" ht="34" customHeight="1">
-      <c r="B15" s="14"/>
+      <c r="B15" s="37" t="s">
+        <v>540</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>261</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="F15" s="14"/>
+      <c r="F15" s="37" t="s">
+        <v>467</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
         <v>17</v>
@@ -6100,7 +6730,7 @@
       <c r="O15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P15" s="18">
+      <c r="P15" s="17">
         <v>9876</v>
       </c>
       <c r="Q15" s="6" t="s">
@@ -6123,15 +6753,19 @@
       </c>
     </row>
     <row r="16" spans="2:22" ht="34" customHeight="1">
-      <c r="B16" s="14"/>
+      <c r="B16" s="37" t="s">
+        <v>541</v>
+      </c>
       <c r="C16" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="37" t="s">
+        <v>468</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>19</v>
@@ -6180,15 +6814,19 @@
       </c>
     </row>
     <row r="17" spans="2:22" ht="34" customHeight="1">
-      <c r="B17" s="14"/>
+      <c r="B17" s="37" t="s">
+        <v>541</v>
+      </c>
       <c r="C17" s="13" t="s">
         <v>137</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="37" t="s">
+        <v>469</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>183</v>
       </c>
@@ -6239,7 +6877,9 @@
       </c>
     </row>
     <row r="18" spans="2:22" ht="34" customHeight="1">
-      <c r="B18" s="14"/>
+      <c r="B18" s="37" t="s">
+        <v>542</v>
+      </c>
       <c r="C18" s="13" t="s">
         <v>137</v>
       </c>
@@ -6249,7 +6889,9 @@
       <c r="E18" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="37" t="s">
+        <v>470</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
         <v>19</v>
@@ -6299,17 +6941,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="L2:S2"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="H2:K2"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -6321,16 +6963,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="34" customHeight="1"/>
   <cols>
     <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" bestFit="1" customWidth="1"/>
@@ -6350,31 +6990,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="34" customHeight="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="1:22" ht="34" customHeight="1">
-      <c r="A2" s="16"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="42" t="s">
         <v>108</v>
       </c>
@@ -6390,43 +7030,43 @@
       <c r="F2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="54"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
       <c r="T2" s="43" t="s">
         <v>114</v>
       </c>
       <c r="U2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="34" customHeight="1">
-      <c r="A3" s="16"/>
-      <c r="B3" s="52"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6439,7 +7079,7 @@
       <c r="K3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="27" t="s">
         <v>234</v>
       </c>
       <c r="M3" s="4" t="s">
@@ -6448,10 +7088,10 @@
       <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="27" t="s">
         <v>236</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="28" t="s">
         <v>237</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -6468,16 +7108,20 @@
       <c r="V3" s="50"/>
     </row>
     <row r="4" spans="1:22" ht="34" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="37" t="s">
+        <v>471</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>8</v>
@@ -6526,8 +7170,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" ht="34" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="37" t="s">
+        <v>544</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>140</v>
       </c>
@@ -6537,7 +7183,9 @@
       <c r="E5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="37" t="s">
+        <v>472</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -6586,16 +7234,20 @@
       </c>
     </row>
     <row r="6" spans="1:22" ht="34" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="37" t="s">
+        <v>543</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="37" t="s">
+        <v>473</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>280</v>
       </c>
@@ -6646,8 +7298,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" ht="34" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="37" t="s">
+        <v>545</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>140</v>
       </c>
@@ -6655,7 +7309,9 @@
         <v>139</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
+      <c r="F7" s="37" t="s">
+        <v>474</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -6704,16 +7360,20 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="34" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="37" t="s">
+        <v>545</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="37" t="s">
+        <v>475</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>181</v>
       </c>
@@ -6764,16 +7424,20 @@
       </c>
     </row>
     <row r="9" spans="1:22" ht="34" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="37" t="s">
+        <v>476</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
         <v>19</v>
@@ -6793,7 +7457,7 @@
       <c r="M9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="16">
         <v>43826</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -6822,15 +7486,19 @@
       </c>
     </row>
     <row r="10" spans="1:22" ht="34" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="37" t="s">
+        <v>477</v>
+      </c>
       <c r="G10" s="13" t="s">
         <v>239</v>
       </c>
@@ -6852,7 +7520,7 @@
       <c r="M10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N10" s="17">
+      <c r="N10" s="16">
         <v>43794</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -6870,10 +7538,10 @@
       <c r="S10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="31" t="s">
+      <c r="T10" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="U10" s="31" t="s">
+      <c r="U10" s="30" t="s">
         <v>281</v>
       </c>
       <c r="V10" s="1" t="s">
@@ -6881,8 +7549,10 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="34" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="37" t="s">
+        <v>547</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>140</v>
       </c>
@@ -6892,7 +7562,9 @@
       <c r="E11" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="14"/>
+      <c r="F11" s="37" t="s">
+        <v>478</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
         <v>19</v>
@@ -6912,7 +7584,7 @@
       <c r="M11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="N11" s="17">
+      <c r="N11" s="16">
         <v>43826</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -6941,8 +7613,10 @@
       </c>
     </row>
     <row r="12" spans="1:22" ht="34" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="37" t="s">
+        <v>548</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>140</v>
       </c>
@@ -6952,7 +7626,9 @@
       <c r="E12" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="37" t="s">
+        <v>479</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>19</v>
@@ -6972,7 +7648,7 @@
       <c r="M12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N12" s="17">
+      <c r="N12" s="16">
         <v>43826</v>
       </c>
       <c r="O12" s="6" t="s">
@@ -7001,16 +7677,20 @@
       </c>
     </row>
     <row r="13" spans="1:22" ht="34" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="37" t="s">
+        <v>546</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="37" t="s">
+        <v>480</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>182</v>
       </c>
@@ -7032,7 +7712,7 @@
       <c r="M13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="17">
+      <c r="N13" s="16">
         <v>43826</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -7061,16 +7741,20 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="34" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="36"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="37" t="s">
+        <v>549</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="37" t="s">
+        <v>481</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>238</v>
       </c>
@@ -7092,7 +7776,7 @@
       <c r="M14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="17">
+      <c r="N14" s="16">
         <v>43826</v>
       </c>
       <c r="O14" s="6" t="s">
@@ -7121,21 +7805,21 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="34" customHeight="1">
-      <c r="T16" s="30"/>
+      <c r="T16" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:S2"/>
     <mergeCell ref="T2:T3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
@@ -7147,16 +7831,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B1:S38"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="81.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
@@ -7188,39 +7870,39 @@
       <c r="F2" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="58"/>
       <c r="M2" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
       <c r="Q2" s="43" t="s">
         <v>114</v>
       </c>
       <c r="R2" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="52" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34" customHeight="1">
-      <c r="B3" s="52"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
       <c r="H3" s="3" t="s">
         <v>55</v>
       </c>
@@ -7253,15 +7935,19 @@
       <c r="S3" s="50"/>
     </row>
     <row r="4" spans="2:19" ht="34" customHeight="1">
-      <c r="B4" s="14"/>
+      <c r="B4" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="C4" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="37" t="s">
+        <v>482</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>120</v>
       </c>
@@ -7303,15 +7989,19 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="34" customHeight="1">
-      <c r="B5" s="14"/>
+      <c r="B5" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="C5" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="37" t="s">
+        <v>483</v>
+      </c>
       <c r="G5" s="2" t="s">
         <v>377</v>
       </c>
@@ -7353,15 +8043,19 @@
       </c>
     </row>
     <row r="6" spans="2:19" ht="34" customHeight="1">
-      <c r="B6" s="14"/>
+      <c r="B6" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="37" t="s">
+        <v>484</v>
+      </c>
       <c r="G6" s="2" t="s">
         <v>121</v>
       </c>
@@ -7403,7 +8097,9 @@
       </c>
     </row>
     <row r="7" spans="2:19" ht="34" customHeight="1">
-      <c r="B7" s="14"/>
+      <c r="B7" s="37" t="s">
+        <v>551</v>
+      </c>
       <c r="C7" s="13" t="s">
         <v>116</v>
       </c>
@@ -7413,7 +8109,9 @@
       <c r="E7" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="37" t="s">
+        <v>485</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
         <v>61</v>
@@ -7453,15 +8151,19 @@
       </c>
     </row>
     <row r="8" spans="2:19" ht="34" customHeight="1">
-      <c r="B8" s="14"/>
+      <c r="B8" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="C8" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="37" t="s">
+        <v>486</v>
+      </c>
       <c r="G8" s="2" t="s">
         <v>122</v>
       </c>
@@ -7503,15 +8205,19 @@
       </c>
     </row>
     <row r="9" spans="2:19" ht="34" customHeight="1">
-      <c r="B9" s="14"/>
+      <c r="B9" s="37" t="s">
+        <v>550</v>
+      </c>
       <c r="C9" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="37" t="s">
+        <v>487</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>124</v>
       </c>
@@ -7553,15 +8259,19 @@
       </c>
     </row>
     <row r="10" spans="2:19" ht="34" customHeight="1">
-      <c r="B10" s="14"/>
+      <c r="B10" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="C10" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="37" t="s">
+        <v>488</v>
+      </c>
       <c r="G10" s="2" t="s">
         <v>125</v>
       </c>
@@ -7603,15 +8313,19 @@
       </c>
     </row>
     <row r="11" spans="2:19" ht="34" customHeight="1">
-      <c r="B11" s="14"/>
+      <c r="B11" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="C11" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="37" t="s">
+        <v>489</v>
+      </c>
       <c r="G11" s="2" t="s">
         <v>126</v>
       </c>
@@ -7653,17 +8367,21 @@
       </c>
     </row>
     <row r="12" spans="2:19" ht="34" customHeight="1">
-      <c r="B12" s="14"/>
+      <c r="B12" s="37" t="s">
+        <v>553</v>
+      </c>
       <c r="C12" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>118</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="37" t="s">
+        <v>490</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
         <v>65</v>
@@ -7703,15 +8421,19 @@
       </c>
     </row>
     <row r="13" spans="2:19" ht="34" customHeight="1">
-      <c r="B13" s="14"/>
+      <c r="B13" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="C13" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="37" t="s">
+        <v>491</v>
+      </c>
       <c r="G13" s="2" t="s">
         <v>122</v>
       </c>
@@ -7753,15 +8475,19 @@
       </c>
     </row>
     <row r="14" spans="2:19" ht="34" customHeight="1">
-      <c r="B14" s="14"/>
+      <c r="B14" s="37" t="s">
+        <v>552</v>
+      </c>
       <c r="C14" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="37" t="s">
+        <v>492</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>127</v>
       </c>
@@ -7803,15 +8529,19 @@
       </c>
     </row>
     <row r="15" spans="2:19" ht="34" customHeight="1">
-      <c r="B15" s="14"/>
+      <c r="B15" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C15" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="37" t="s">
+        <v>493</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>342</v>
       </c>
@@ -7853,15 +8583,19 @@
       </c>
     </row>
     <row r="16" spans="2:19" ht="34" customHeight="1">
-      <c r="B16" s="14"/>
+      <c r="B16" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C16" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="37" t="s">
+        <v>494</v>
+      </c>
       <c r="G16" s="2" t="s">
         <v>343</v>
       </c>
@@ -7903,15 +8637,19 @@
       </c>
     </row>
     <row r="17" spans="2:19" ht="34" customHeight="1">
-      <c r="B17" s="14"/>
+      <c r="B17" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C17" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="37" t="s">
+        <v>495</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>344</v>
       </c>
@@ -7953,15 +8691,19 @@
       </c>
     </row>
     <row r="18" spans="2:19" ht="34" customHeight="1">
-      <c r="B18" s="14"/>
+      <c r="B18" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C18" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="37" t="s">
+        <v>496</v>
+      </c>
       <c r="G18" s="2" t="s">
         <v>345</v>
       </c>
@@ -8003,15 +8745,19 @@
       </c>
     </row>
     <row r="19" spans="2:19" ht="34" customHeight="1">
-      <c r="B19" s="14"/>
+      <c r="B19" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C19" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="37" t="s">
+        <v>497</v>
+      </c>
       <c r="G19" s="2" t="s">
         <v>346</v>
       </c>
@@ -8053,15 +8799,19 @@
       </c>
     </row>
     <row r="20" spans="2:19" ht="34" customHeight="1">
-      <c r="B20" s="14"/>
+      <c r="B20" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C20" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="37" t="s">
+        <v>498</v>
+      </c>
       <c r="G20" s="2" t="s">
         <v>347</v>
       </c>
@@ -8103,15 +8853,19 @@
       </c>
     </row>
     <row r="21" spans="2:19" ht="34" customHeight="1">
-      <c r="B21" s="14"/>
+      <c r="B21" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C21" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="37" t="s">
+        <v>499</v>
+      </c>
       <c r="G21" s="2" t="s">
         <v>348</v>
       </c>
@@ -8153,15 +8907,19 @@
       </c>
     </row>
     <row r="22" spans="2:19" ht="34" customHeight="1">
-      <c r="B22" s="14"/>
+      <c r="B22" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C22" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="37" t="s">
+        <v>500</v>
+      </c>
       <c r="G22" s="2" t="s">
         <v>349</v>
       </c>
@@ -8203,15 +8961,19 @@
       </c>
     </row>
     <row r="23" spans="2:19" ht="34" customHeight="1">
-      <c r="B23" s="14"/>
+      <c r="B23" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C23" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="37" t="s">
+        <v>501</v>
+      </c>
       <c r="G23" s="2" t="s">
         <v>350</v>
       </c>
@@ -8253,15 +9015,19 @@
       </c>
     </row>
     <row r="24" spans="2:19" ht="34" customHeight="1">
-      <c r="B24" s="14"/>
+      <c r="B24" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C24" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D24" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="37" t="s">
+        <v>502</v>
+      </c>
       <c r="G24" s="2" t="s">
         <v>351</v>
       </c>
@@ -8303,15 +9069,19 @@
       </c>
     </row>
     <row r="25" spans="2:19" ht="34" customHeight="1">
-      <c r="B25" s="14"/>
+      <c r="B25" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C25" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D25" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="15"/>
-      <c r="F25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="37" t="s">
+        <v>503</v>
+      </c>
       <c r="G25" s="2" t="s">
         <v>352</v>
       </c>
@@ -8353,15 +9123,19 @@
       </c>
     </row>
     <row r="26" spans="2:19" ht="34" customHeight="1">
-      <c r="B26" s="14"/>
+      <c r="B26" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C26" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="37" t="s">
+        <v>504</v>
+      </c>
       <c r="G26" s="2" t="s">
         <v>353</v>
       </c>
@@ -8403,15 +9177,19 @@
       </c>
     </row>
     <row r="27" spans="2:19" ht="34" customHeight="1">
-      <c r="B27" s="14"/>
+      <c r="B27" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C27" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="37" t="s">
+        <v>505</v>
+      </c>
       <c r="G27" s="2" t="s">
         <v>354</v>
       </c>
@@ -8453,15 +9231,19 @@
       </c>
     </row>
     <row r="28" spans="2:19" ht="34" customHeight="1">
-      <c r="B28" s="14"/>
+      <c r="B28" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C28" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="37" t="s">
+        <v>506</v>
+      </c>
       <c r="G28" s="2" t="s">
         <v>355</v>
       </c>
@@ -8503,15 +9285,19 @@
       </c>
     </row>
     <row r="29" spans="2:19" ht="34" customHeight="1">
-      <c r="B29" s="14"/>
+      <c r="B29" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C29" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="37" t="s">
+        <v>507</v>
+      </c>
       <c r="G29" s="2" t="s">
         <v>356</v>
       </c>
@@ -8553,15 +9339,19 @@
       </c>
     </row>
     <row r="30" spans="2:19" ht="34" customHeight="1">
-      <c r="B30" s="14"/>
+      <c r="B30" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C30" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="37" t="s">
+        <v>508</v>
+      </c>
       <c r="G30" s="2" t="s">
         <v>361</v>
       </c>
@@ -8603,15 +9393,19 @@
       </c>
     </row>
     <row r="31" spans="2:19" ht="34" customHeight="1">
-      <c r="B31" s="14"/>
+      <c r="B31" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C31" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="37" t="s">
+        <v>509</v>
+      </c>
       <c r="G31" s="2" t="s">
         <v>362</v>
       </c>
@@ -8653,15 +9447,19 @@
       </c>
     </row>
     <row r="32" spans="2:19" ht="34" customHeight="1">
-      <c r="B32" s="14"/>
+      <c r="B32" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C32" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="37" t="s">
+        <v>510</v>
+      </c>
       <c r="G32" s="2" t="s">
         <v>357</v>
       </c>
@@ -8703,15 +9501,19 @@
       </c>
     </row>
     <row r="33" spans="2:19" ht="34" customHeight="1">
-      <c r="B33" s="14"/>
+      <c r="B33" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C33" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="37" t="s">
+        <v>511</v>
+      </c>
       <c r="G33" s="2" t="s">
         <v>360</v>
       </c>
@@ -8753,15 +9555,19 @@
       </c>
     </row>
     <row r="34" spans="2:19" ht="34" customHeight="1">
-      <c r="B34" s="14"/>
+      <c r="B34" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C34" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="37" t="s">
+        <v>512</v>
+      </c>
       <c r="G34" s="2" t="s">
         <v>359</v>
       </c>
@@ -8803,15 +9609,19 @@
       </c>
     </row>
     <row r="35" spans="2:19" ht="34" customHeight="1">
-      <c r="B35" s="14"/>
+      <c r="B35" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C35" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="37" t="s">
+        <v>513</v>
+      </c>
       <c r="G35" s="2" t="s">
         <v>358</v>
       </c>
@@ -8853,7 +9663,9 @@
       </c>
     </row>
     <row r="36" spans="2:19" ht="34" customHeight="1">
-      <c r="B36" s="14"/>
+      <c r="B36" s="37" t="s">
+        <v>555</v>
+      </c>
       <c r="C36" s="13" t="s">
         <v>116</v>
       </c>
@@ -8863,7 +9675,9 @@
       <c r="E36" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F36" s="14"/>
+      <c r="F36" s="37" t="s">
+        <v>514</v>
+      </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
         <v>54</v>
@@ -8903,15 +9717,19 @@
       </c>
     </row>
     <row r="37" spans="2:19" ht="34" customHeight="1">
-      <c r="B37" s="14"/>
+      <c r="B37" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C37" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="37" t="s">
+        <v>515</v>
+      </c>
       <c r="G37" s="2" t="s">
         <v>122</v>
       </c>
@@ -8953,15 +9771,19 @@
       </c>
     </row>
     <row r="38" spans="2:19" ht="34" customHeight="1">
-      <c r="B38" s="14"/>
+      <c r="B38" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C38" s="13" t="s">
         <v>116</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="37" t="s">
+        <v>516</v>
+      </c>
       <c r="G38" s="2" t="s">
         <v>128</v>
       </c>
